--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,299 +417,288 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39765</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="E2">
+        <v>3.407109591918855</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>40130</v>
       </c>
       <c r="B3">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="C3">
+        <v>-4.715480642250625</v>
       </c>
       <c r="D3">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E3">
-        <v>-4.11977425520006</v>
+        <v>-2.725947775269033</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40130</v>
+        <v>40494</v>
       </c>
       <c r="B4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C4">
-        <v>-4.715480642250625</v>
+        <v>6.130685532900904</v>
       </c>
       <c r="D4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E4">
-        <v>4.427373160049175</v>
+        <v>5.993806847197725</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40494</v>
+        <v>40862</v>
       </c>
       <c r="B5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C5">
-        <v>6.130685532900904</v>
+        <v>8.703939237318981</v>
       </c>
       <c r="D5">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E5">
-        <v>8.03322551738226</v>
+        <v>6.924353497010971</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40862</v>
+        <v>41228</v>
       </c>
       <c r="B6">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C6">
-        <v>8.703939237318981</v>
+        <v>2.688274587589135</v>
       </c>
       <c r="D6">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E6">
-        <v>3.165505535041224</v>
+        <v>3.737237443362851</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41228</v>
+        <v>41592</v>
       </c>
       <c r="B7">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C7">
-        <v>2.688274587589135</v>
+        <v>0.9946838291217786</v>
       </c>
       <c r="D7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E7">
-        <v>0.6717944919448771</v>
+        <v>3.504647804006344</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41592</v>
+        <v>41957</v>
       </c>
       <c r="B8">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C8">
-        <v>0.9946838291217786</v>
+        <v>5.562499360312567</v>
       </c>
       <c r="D8">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E8">
-        <v>5.837587351923346</v>
+        <v>4.130094879572455</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>41957</v>
+        <v>42321</v>
       </c>
       <c r="B9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C9">
-        <v>5.562499360312567</v>
+        <v>4.195080504802551</v>
       </c>
       <c r="D9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E9">
-        <v>4.09237104505884</v>
+        <v>5.194458387461709</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42321</v>
+        <v>42689</v>
       </c>
       <c r="B10">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C10">
-        <v>4.195080504802551</v>
+        <v>4.230623896992025</v>
       </c>
       <c r="D10">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E10">
-        <v>4.463171841920266</v>
+        <v>4.372655645302403</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>42689</v>
+        <v>43053</v>
       </c>
       <c r="B11">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C11">
-        <v>4.230623896992025</v>
+        <v>4.933871867981643</v>
       </c>
       <c r="D11">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E11">
-        <v>4.466929963999822</v>
+        <v>5.324897060120137</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43053</v>
+        <v>43418</v>
       </c>
       <c r="B12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C12">
-        <v>4.933871867981643</v>
+        <v>5.456119081407906</v>
       </c>
       <c r="D12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E12">
-        <v>6.043140264557834</v>
+        <v>4.693063499664252</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43418</v>
+        <v>43783</v>
       </c>
       <c r="B13">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C13">
-        <v>5.456119081407906</v>
+        <v>3.346849276607955</v>
       </c>
       <c r="D13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E13">
-        <v>4.016715734612819</v>
+        <v>3.273620772016161</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>43783</v>
+        <v>44159</v>
       </c>
       <c r="B14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C14">
-        <v>3.346849276607955</v>
+        <v>-9.2489161297999</v>
       </c>
       <c r="D14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E14">
-        <v>3.033351895826453</v>
+        <v>-4.319815935184923</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44159</v>
+        <v>44525</v>
       </c>
       <c r="B15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C15">
-        <v>-9.2489161297999</v>
+        <v>-1.287084480507283</v>
       </c>
       <c r="D15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E15">
-        <v>-1.417336502781907</v>
+        <v>1.850145327219943</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44525</v>
+        <v>44890</v>
       </c>
       <c r="B16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C16">
-        <v>-1.287084480507283</v>
+        <v>1.494343500592232</v>
       </c>
       <c r="D16">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E16">
-        <v>5.684409614634189</v>
+        <v>2.552834403233084</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>44890</v>
+        <v>45254</v>
       </c>
       <c r="B17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C17">
-        <v>1.494343500592232</v>
+        <v>-0.6982718287330991</v>
       </c>
       <c r="D17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E17">
-        <v>1.008942292657955</v>
+        <v>-1.04392885455985</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45254</v>
+        <v>45618</v>
       </c>
       <c r="B18">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.6982718287330991</v>
+        <v>-0.4137309550271362</v>
       </c>
       <c r="D18">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.8104515225652476</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>45618</v>
-      </c>
-      <c r="B19">
-        <v>2024</v>
-      </c>
-      <c r="C19">
-        <v>-0.4137309550271362</v>
-      </c>
-      <c r="D19">
-        <v>2025</v>
-      </c>
-      <c r="E19">
-        <v>1.482352664753539</v>
+        <v>0.8860470190541037</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,288 +417,308 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39765</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>11.13090654781819</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>3.407109591918855</v>
+        <v>9.396507498425466</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>40130</v>
+        <v>39765</v>
       </c>
       <c r="B3">
+        <v>2008</v>
+      </c>
+      <c r="C3">
+        <v>4.672550446571067</v>
+      </c>
+      <c r="D3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>-4.715480642250625</v>
-      </c>
-      <c r="D3">
-        <v>2010</v>
-      </c>
       <c r="E3">
-        <v>-2.725947775269033</v>
+        <v>4.422525088127283</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40494</v>
+        <v>40130</v>
       </c>
       <c r="B4">
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>-14.45332333832743</v>
+      </c>
+      <c r="D4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>6.130685532900904</v>
-      </c>
-      <c r="D4">
-        <v>2011</v>
-      </c>
       <c r="E4">
-        <v>5.993806847197725</v>
+        <v>-2.928447329610073</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40862</v>
+        <v>40494</v>
       </c>
       <c r="B5">
+        <v>2010</v>
+      </c>
+      <c r="C5">
+        <v>8.600536527919633</v>
+      </c>
+      <c r="D5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>8.703939237318981</v>
-      </c>
-      <c r="D5">
-        <v>2012</v>
-      </c>
       <c r="E5">
-        <v>6.924353497010971</v>
+        <v>6.303897256856628</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41228</v>
+        <v>40862</v>
       </c>
       <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6">
+        <v>10.25770250047622</v>
+      </c>
+      <c r="D6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>2.688274587589135</v>
-      </c>
-      <c r="D6">
-        <v>2013</v>
-      </c>
       <c r="E6">
-        <v>3.737237443362851</v>
+        <v>10.22374275635105</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41592</v>
+        <v>41228</v>
       </c>
       <c r="B7">
+        <v>2012</v>
+      </c>
+      <c r="C7">
+        <v>4.639893381363169</v>
+      </c>
+      <c r="D7">
         <v>2013</v>
       </c>
-      <c r="C7">
-        <v>0.9946838291217786</v>
-      </c>
-      <c r="D7">
-        <v>2014</v>
-      </c>
       <c r="E7">
-        <v>3.504647804006344</v>
+        <v>8.174613408931286</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41957</v>
+        <v>41592</v>
       </c>
       <c r="B8">
+        <v>2013</v>
+      </c>
+      <c r="C8">
+        <v>0.3058963467304165</v>
+      </c>
+      <c r="D8">
         <v>2014</v>
       </c>
-      <c r="C8">
-        <v>5.562499360312567</v>
-      </c>
-      <c r="D8">
-        <v>2015</v>
-      </c>
       <c r="E8">
-        <v>4.130094879572455</v>
+        <v>2.429116709932622</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>42321</v>
+        <v>41957</v>
       </c>
       <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9">
+        <v>4.068173739091874</v>
+      </c>
+      <c r="D9">
         <v>2015</v>
       </c>
-      <c r="C9">
-        <v>4.195080504802551</v>
-      </c>
-      <c r="D9">
-        <v>2016</v>
-      </c>
       <c r="E9">
-        <v>5.194458387461709</v>
+        <v>3.9413000500929</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42689</v>
+        <v>42321</v>
       </c>
       <c r="B10">
+        <v>2015</v>
+      </c>
+      <c r="C10">
+        <v>4.984288257750213</v>
+      </c>
+      <c r="D10">
         <v>2016</v>
       </c>
-      <c r="C10">
-        <v>4.230623896992025</v>
-      </c>
-      <c r="D10">
-        <v>2017</v>
-      </c>
       <c r="E10">
-        <v>4.372655645302403</v>
+        <v>4.188839638544284</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>43053</v>
+        <v>42689</v>
       </c>
       <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11">
+        <v>1.878184267712912</v>
+      </c>
+      <c r="D11">
         <v>2017</v>
       </c>
-      <c r="C11">
-        <v>4.933871867981643</v>
-      </c>
-      <c r="D11">
-        <v>2018</v>
-      </c>
       <c r="E11">
-        <v>5.324897060120137</v>
+        <v>2.514670279852349</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43418</v>
+        <v>43053</v>
       </c>
       <c r="B12">
+        <v>2017</v>
+      </c>
+      <c r="C12">
+        <v>4.695933104194339</v>
+      </c>
+      <c r="D12">
         <v>2018</v>
       </c>
-      <c r="C12">
-        <v>5.456119081407906</v>
-      </c>
-      <c r="D12">
-        <v>2019</v>
-      </c>
       <c r="E12">
-        <v>4.693063499664252</v>
+        <v>4.5579527192392</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43783</v>
+        <v>43418</v>
       </c>
       <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>4.892602738886098</v>
+      </c>
+      <c r="D13">
         <v>2019</v>
       </c>
-      <c r="C13">
-        <v>3.346849276607955</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
       <c r="E13">
-        <v>3.273620772016161</v>
+        <v>1.957202207503861</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>44159</v>
+        <v>43783</v>
       </c>
       <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>0.8049382522247184</v>
+      </c>
+      <c r="D14">
         <v>2020</v>
       </c>
-      <c r="C14">
-        <v>-9.2489161297999</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
       <c r="E14">
-        <v>-4.319815935184923</v>
+        <v>2.267257846564918</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44525</v>
+        <v>44159</v>
       </c>
       <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15">
+        <v>-8.784173899737169</v>
+      </c>
+      <c r="D15">
         <v>2021</v>
       </c>
-      <c r="C15">
-        <v>-1.287084480507283</v>
-      </c>
-      <c r="D15">
-        <v>2022</v>
-      </c>
       <c r="E15">
-        <v>1.850145327219943</v>
+        <v>2.199380357735481</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44890</v>
+        <v>44525</v>
       </c>
       <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16">
+        <v>5.110501195359984</v>
+      </c>
+      <c r="D16">
         <v>2022</v>
       </c>
-      <c r="C16">
-        <v>1.494343500592232</v>
-      </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
       <c r="E16">
-        <v>2.552834403233084</v>
+        <v>0.3515918738370427</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45254</v>
+        <v>44890</v>
       </c>
       <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="C17">
+        <v>5.120680133083599</v>
+      </c>
+      <c r="D17">
         <v>2023</v>
       </c>
-      <c r="C17">
-        <v>-0.6982718287330991</v>
-      </c>
-      <c r="D17">
-        <v>2024</v>
-      </c>
       <c r="E17">
-        <v>-1.04392885455985</v>
+        <v>5.934275247805543</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18">
+        <v>-0.5532735011319234</v>
+      </c>
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18">
+        <v>-1.846917864698006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>45618</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2024</v>
       </c>
-      <c r="C18">
-        <v>-0.4137309550271362</v>
-      </c>
-      <c r="D18">
+      <c r="C19">
+        <v>-1.069674659641462</v>
+      </c>
+      <c r="D19">
         <v>2025</v>
       </c>
-      <c r="E18">
-        <v>0.8860470190541037</v>
+      <c r="E19">
+        <v>-0.7986414110784379</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_winter.xlsx
@@ -650,7 +650,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>2.199380357735481</v>
+        <v>-1.352810423674344</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +667,7 @@
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>0.3515918738370427</v>
+        <v>-0.3934198590721416</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -684,7 +684,7 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>5.934275247805543</v>
+        <v>4.36410677572221</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -701,7 +701,7 @@
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>-1.846917864698006</v>
+        <v>-0.01718213034729299</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -718,7 +718,7 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>-0.7986414110784379</v>
+        <v>-1.285281499260049</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_winter.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>11.13090654781819</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>9.396507498425466</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>4.672550446571067</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>4.422525088127283</v>
+        <v>4.422525088127305</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +448,13 @@
         <v>2009</v>
       </c>
       <c r="C4">
-        <v>-14.45332333832743</v>
+        <v>-14.45332333832744</v>
       </c>
       <c r="D4">
         <v>2010</v>
       </c>
       <c r="E4">
-        <v>-2.928447329610073</v>
+        <v>-2.928447329610051</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +465,7 @@
         <v>2010</v>
       </c>
       <c r="C5">
-        <v>8.600536527919633</v>
+        <v>8.600536527919612</v>
       </c>
       <c r="D5">
         <v>2011</v>
@@ -508,7 +499,7 @@
         <v>2012</v>
       </c>
       <c r="C7">
-        <v>4.639893381363169</v>
+        <v>4.639893381363192</v>
       </c>
       <c r="D7">
         <v>2013</v>
@@ -531,7 +522,7 @@
         <v>2014</v>
       </c>
       <c r="E8">
-        <v>2.429116709932622</v>
+        <v>2.429116709932599</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -548,7 +539,7 @@
         <v>2015</v>
       </c>
       <c r="E9">
-        <v>3.9413000500929</v>
+        <v>3.941300050092877</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -593,7 +584,7 @@
         <v>2017</v>
       </c>
       <c r="C12">
-        <v>4.695933104194339</v>
+        <v>4.695933104194361</v>
       </c>
       <c r="D12">
         <v>2018</v>
@@ -650,7 +641,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>-1.352810423674344</v>
+        <v>-1.352810423674367</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +658,7 @@
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>-0.3934198590721416</v>
+        <v>-0.3934198590721305</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,7 +669,7 @@
         <v>2022</v>
       </c>
       <c r="C17">
-        <v>5.120680133083599</v>
+        <v>5.120680133083622</v>
       </c>
       <c r="D17">
         <v>2023</v>
@@ -695,7 +686,7 @@
         <v>2023</v>
       </c>
       <c r="C18">
-        <v>-0.5532735011319234</v>
+        <v>-0.5532735011319123</v>
       </c>
       <c r="D18">
         <v>2024</v>
@@ -718,7 +709,7 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>-1.285281499260049</v>
+        <v>-1.28528149926006</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,6 +712,23 @@
         <v>-1.28528149926006</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20">
+        <v>-2.451276118722334</v>
+      </c>
+      <c r="D20">
+        <v>2026</v>
+      </c>
+      <c r="E20">
+        <v>-0.8888225292121632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
